--- a/bin/Debug/acquiredData/Tuesday 18 May 21 155122.xlsx
+++ b/bin/Debug/acquiredData/Tuesday 18 May 21 155122.xlsx
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -5568,38 +5568,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -10744,20 +10713,67 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Elapsed (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10806,20 +10822,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Angular Velocity (deg/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12348,13 +12406,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q844"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AF18" sqref="AF18"/>
+    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12407,7 +12465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>188</v>
       </c>
@@ -12460,7 +12518,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>261</v>
       </c>
@@ -12513,7 +12571,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>292</v>
       </c>
@@ -12566,7 +12624,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>323</v>
       </c>
@@ -12619,7 +12677,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>385</v>
       </c>
@@ -12672,7 +12730,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>416</v>
       </c>
@@ -12725,7 +12783,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>446</v>
       </c>
@@ -12778,7 +12836,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>477</v>
       </c>
@@ -12831,7 +12889,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>538</v>
       </c>
@@ -12884,7 +12942,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>569</v>
       </c>
@@ -12937,7 +12995,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>600</v>
       </c>
@@ -12990,7 +13048,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>631</v>
       </c>
@@ -13043,7 +13101,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>662</v>
       </c>
@@ -13096,7 +13154,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>693</v>
       </c>
@@ -13149,7 +13207,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>755</v>
       </c>
@@ -13202,7 +13260,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>786</v>
       </c>
@@ -13255,7 +13313,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>816</v>
       </c>
@@ -13308,7 +13366,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>847</v>
       </c>
@@ -13361,7 +13419,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>878</v>
       </c>
@@ -13414,7 +13472,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>909</v>
       </c>
@@ -13467,7 +13525,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>939</v>
       </c>
@@ -13520,7 +13578,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>970</v>
       </c>
@@ -13573,7 +13631,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1031</v>
       </c>
@@ -13626,7 +13684,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1062</v>
       </c>
@@ -13679,7 +13737,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1093</v>
       </c>
@@ -13732,7 +13790,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1123</v>
       </c>
@@ -13785,7 +13843,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1153</v>
       </c>
@@ -13838,7 +13896,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1214</v>
       </c>
@@ -13891,7 +13949,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1245</v>
       </c>
@@ -13944,7 +14002,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1275</v>
       </c>
@@ -13997,7 +14055,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1305</v>
       </c>
@@ -14050,7 +14108,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1366</v>
       </c>
@@ -14103,7 +14161,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1396</v>
       </c>
@@ -14156,7 +14214,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1427</v>
       </c>
@@ -14209,7 +14267,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1489</v>
       </c>
@@ -14262,7 +14320,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1550</v>
       </c>
@@ -14315,7 +14373,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1581</v>
       </c>
@@ -14368,7 +14426,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1612</v>
       </c>
@@ -14421,7 +14479,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1674</v>
       </c>
@@ -14474,7 +14532,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1704</v>
       </c>
@@ -14527,7 +14585,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1735</v>
       </c>
@@ -14580,7 +14638,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1765</v>
       </c>
@@ -14633,7 +14691,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1826</v>
       </c>
@@ -14686,7 +14744,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1857</v>
       </c>
@@ -14739,7 +14797,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1888</v>
       </c>
@@ -14792,7 +14850,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1918</v>
       </c>
@@ -14845,7 +14903,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1949</v>
       </c>
@@ -14898,7 +14956,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2011</v>
       </c>
@@ -14951,7 +15009,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2042</v>
       </c>
@@ -15004,7 +15062,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2072</v>
       </c>
@@ -15057,7 +15115,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2133</v>
       </c>
@@ -15110,7 +15168,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2164</v>
       </c>
@@ -15163,7 +15221,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2194</v>
       </c>
@@ -15216,7 +15274,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2224</v>
       </c>
@@ -15269,7 +15327,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2285</v>
       </c>
@@ -15322,7 +15380,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2316</v>
       </c>
@@ -15375,7 +15433,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2347</v>
       </c>
@@ -15428,7 +15486,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2377</v>
       </c>
@@ -15481,7 +15539,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2408</v>
       </c>
@@ -15534,7 +15592,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2439</v>
       </c>
@@ -15587,7 +15645,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2500</v>
       </c>
@@ -15640,7 +15698,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2531</v>
       </c>
@@ -15693,7 +15751,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2562</v>
       </c>
@@ -15746,7 +15804,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2593</v>
       </c>
@@ -15799,7 +15857,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2624</v>
       </c>
@@ -15852,7 +15910,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2686</v>
       </c>
@@ -15905,7 +15963,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2716</v>
       </c>
@@ -15958,7 +16016,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2747</v>
       </c>
@@ -16011,7 +16069,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2778</v>
       </c>
@@ -16064,7 +16122,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2809</v>
       </c>
@@ -16117,7 +16175,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2840</v>
       </c>
@@ -16170,7 +16228,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2901</v>
       </c>
@@ -16223,7 +16281,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2932</v>
       </c>
@@ -16276,7 +16334,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2963</v>
       </c>
@@ -16329,7 +16387,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2994</v>
       </c>
@@ -16382,7 +16440,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3025</v>
       </c>
@@ -16435,7 +16493,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3055</v>
       </c>
@@ -16488,7 +16546,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3086</v>
       </c>
@@ -16541,7 +16599,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3117</v>
       </c>
@@ -16594,7 +16652,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3179</v>
       </c>
@@ -16647,7 +16705,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3210</v>
       </c>
@@ -16700,7 +16758,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3240</v>
       </c>
@@ -16753,7 +16811,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3271</v>
       </c>
@@ -16806,7 +16864,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3302</v>
       </c>
@@ -16859,7 +16917,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3333</v>
       </c>
@@ -16912,7 +16970,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3364</v>
       </c>
@@ -16965,7 +17023,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3395</v>
       </c>
@@ -17018,7 +17076,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3426</v>
       </c>
@@ -17071,7 +17129,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3488</v>
       </c>
@@ -17124,7 +17182,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3519</v>
       </c>
@@ -17177,7 +17235,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3550</v>
       </c>
@@ -17230,7 +17288,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3581</v>
       </c>
@@ -17283,7 +17341,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3611</v>
       </c>
@@ -17336,7 +17394,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3642</v>
       </c>
@@ -17389,7 +17447,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3673</v>
       </c>
@@ -17442,7 +17500,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3704</v>
       </c>
@@ -17495,7 +17553,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3735</v>
       </c>
@@ -17548,7 +17606,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3766</v>
       </c>
@@ -17601,7 +17659,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3797</v>
       </c>
@@ -17654,7 +17712,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3859</v>
       </c>
@@ -17707,7 +17765,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3890</v>
       </c>
@@ -17760,7 +17818,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3921</v>
       </c>
@@ -17813,7 +17871,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3952</v>
       </c>
@@ -17866,7 +17924,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3982</v>
       </c>
@@ -17919,7 +17977,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4013</v>
       </c>
@@ -17972,7 +18030,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4044</v>
       </c>
@@ -18025,7 +18083,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4075</v>
       </c>
@@ -18078,7 +18136,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4106</v>
       </c>
@@ -18131,7 +18189,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4137</v>
       </c>
@@ -18184,7 +18242,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4168</v>
       </c>
@@ -18237,7 +18295,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>4198</v>
       </c>
@@ -18290,7 +18348,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4229</v>
       </c>
@@ -18343,7 +18401,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>4294</v>
       </c>
@@ -18396,7 +18454,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>4325</v>
       </c>
@@ -18449,7 +18507,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>4356</v>
       </c>
@@ -18502,7 +18560,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4387</v>
       </c>
@@ -18555,7 +18613,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>4418</v>
       </c>
@@ -18608,7 +18666,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>4448</v>
       </c>
@@ -18661,7 +18719,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>4479</v>
       </c>
@@ -18714,7 +18772,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4510</v>
       </c>
@@ -18767,7 +18825,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4541</v>
       </c>
@@ -18820,7 +18878,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4572</v>
       </c>
@@ -18873,7 +18931,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4603</v>
       </c>
@@ -18926,7 +18984,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4634</v>
       </c>
@@ -18979,7 +19037,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4665</v>
       </c>
@@ -19032,7 +19090,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4696</v>
       </c>
@@ -19085,7 +19143,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>4757</v>
       </c>
@@ -19138,7 +19196,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4788</v>
       </c>
@@ -19191,7 +19249,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4819</v>
       </c>
@@ -19244,7 +19302,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4850</v>
       </c>
@@ -19297,7 +19355,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4881</v>
       </c>
@@ -19350,7 +19408,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4912</v>
       </c>
@@ -19403,7 +19461,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4943</v>
       </c>
@@ -19456,7 +19514,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4974</v>
       </c>
@@ -19509,7 +19567,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>5004</v>
       </c>
@@ -19562,7 +19620,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>5035</v>
       </c>
@@ -19615,7 +19673,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>5066</v>
       </c>
@@ -19668,7 +19726,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>5097</v>
       </c>
@@ -19721,7 +19779,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>5128</v>
       </c>
@@ -19774,7 +19832,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>5159</v>
       </c>
@@ -19827,7 +19885,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>5190</v>
       </c>
@@ -19880,7 +19938,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5252</v>
       </c>
@@ -19933,7 +19991,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5283</v>
       </c>
@@ -19986,7 +20044,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>5314</v>
       </c>
@@ -20039,7 +20097,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>5348</v>
       </c>
@@ -20092,7 +20150,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5379</v>
       </c>
@@ -20145,7 +20203,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>5409</v>
       </c>
@@ -20198,7 +20256,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>5440</v>
       </c>
@@ -20251,7 +20309,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5471</v>
       </c>
@@ -20304,7 +20362,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5533</v>
       </c>
@@ -20357,7 +20415,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>5842</v>
       </c>
@@ -20410,7 +20468,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>5873</v>
       </c>
@@ -20463,7 +20521,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>5936</v>
       </c>
@@ -20516,7 +20574,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>5966</v>
       </c>
@@ -20569,7 +20627,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>5997</v>
       </c>
@@ -20622,7 +20680,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>6059</v>
       </c>
@@ -20675,7 +20733,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>6090</v>
       </c>
@@ -20728,7 +20786,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>6121</v>
       </c>
@@ -20781,7 +20839,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>6151</v>
       </c>
@@ -20834,7 +20892,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6213</v>
       </c>
@@ -20887,7 +20945,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6244</v>
       </c>
@@ -20940,7 +20998,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6275</v>
       </c>
@@ -20993,7 +21051,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6305</v>
       </c>
@@ -21046,7 +21104,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>6336</v>
       </c>
@@ -21099,7 +21157,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6404</v>
       </c>
@@ -21152,7 +21210,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>6435</v>
       </c>
@@ -21205,7 +21263,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>6465</v>
       </c>
@@ -21258,7 +21316,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>6527</v>
       </c>
@@ -21311,7 +21369,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>6558</v>
       </c>
@@ -21364,7 +21422,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>6620</v>
       </c>
@@ -21417,7 +21475,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6651</v>
       </c>
@@ -21470,7 +21528,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>6682</v>
       </c>
@@ -21523,7 +21581,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>6746</v>
       </c>
@@ -21576,7 +21634,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>6777</v>
       </c>
@@ -21629,7 +21687,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>6808</v>
       </c>
@@ -21682,7 +21740,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>6838</v>
       </c>
@@ -21735,7 +21793,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>6900</v>
       </c>
@@ -21788,7 +21846,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>6931</v>
       </c>
@@ -21841,7 +21899,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>6962</v>
       </c>
@@ -21894,7 +21952,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>6993</v>
       </c>
@@ -21947,7 +22005,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>7026</v>
       </c>
@@ -22000,7 +22058,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>7088</v>
       </c>
@@ -22053,7 +22111,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>7119</v>
       </c>
@@ -22106,7 +22164,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>7150</v>
       </c>
@@ -22159,7 +22217,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>7181</v>
       </c>
@@ -22212,7 +22270,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>7211</v>
       </c>
@@ -22265,7 +22323,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>7242</v>
       </c>
@@ -22318,7 +22376,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>7273</v>
       </c>
@@ -22371,7 +22429,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>7335</v>
       </c>
@@ -22424,7 +22482,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>7366</v>
       </c>
@@ -22477,7 +22535,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>7397</v>
       </c>
@@ -22530,7 +22588,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>7428</v>
       </c>
@@ -22583,7 +22641,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>7459</v>
       </c>
@@ -22636,7 +22694,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>7490</v>
       </c>
@@ -22689,7 +22747,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>7521</v>
       </c>
@@ -22742,7 +22800,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>7551</v>
       </c>
@@ -22795,7 +22853,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>7613</v>
       </c>
@@ -22848,7 +22906,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>7644</v>
       </c>
@@ -22901,7 +22959,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>7675</v>
       </c>
@@ -22954,7 +23012,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>7706</v>
       </c>
@@ -23007,7 +23065,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>7737</v>
       </c>
@@ -23060,7 +23118,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>7768</v>
       </c>
@@ -23113,7 +23171,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>7798</v>
       </c>
@@ -23166,7 +23224,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>7829</v>
       </c>
@@ -23219,7 +23277,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>7860</v>
       </c>
@@ -23272,7 +23330,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>7891</v>
       </c>
@@ -23325,7 +23383,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>7953</v>
       </c>
@@ -23378,7 +23436,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>7984</v>
       </c>
@@ -23431,7 +23489,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>8015</v>
       </c>
@@ -23484,7 +23542,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>8046</v>
       </c>
@@ -23537,7 +23595,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>8077</v>
       </c>
@@ -23590,7 +23648,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>8107</v>
       </c>
@@ -23643,7 +23701,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>8138</v>
       </c>
@@ -23696,7 +23754,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>8172</v>
       </c>
@@ -23749,7 +23807,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>8203</v>
       </c>
@@ -23802,7 +23860,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>8265</v>
       </c>
@@ -23855,7 +23913,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>8296</v>
       </c>
@@ -23908,7 +23966,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>8327</v>
       </c>
@@ -23961,7 +24019,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>8358</v>
       </c>
@@ -24014,7 +24072,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>8388</v>
       </c>
@@ -24067,7 +24125,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>8419</v>
       </c>
@@ -24120,7 +24178,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>8481</v>
       </c>
@@ -24173,7 +24231,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>8512</v>
       </c>
@@ -24226,7 +24284,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>8543</v>
       </c>
@@ -24279,7 +24337,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>8574</v>
       </c>
@@ -24332,7 +24390,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>8636</v>
       </c>
@@ -24385,7 +24443,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>8667</v>
       </c>
@@ -24438,7 +24496,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>8698</v>
       </c>
@@ -24491,7 +24549,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>8729</v>
       </c>
@@ -24544,7 +24602,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>8759</v>
       </c>
@@ -24597,7 +24655,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>8821</v>
       </c>
@@ -24650,7 +24708,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>8852</v>
       </c>
@@ -24703,7 +24761,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>8883</v>
       </c>
@@ -24756,7 +24814,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>8914</v>
       </c>
@@ -24809,7 +24867,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>8945</v>
       </c>
@@ -24862,7 +24920,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>8976</v>
       </c>
@@ -24915,7 +24973,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>9038</v>
       </c>
@@ -24968,7 +25026,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>9069</v>
       </c>
@@ -25021,7 +25079,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>9100</v>
       </c>
@@ -25074,7 +25132,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>9131</v>
       </c>
@@ -25127,7 +25185,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>9162</v>
       </c>
@@ -25180,7 +25238,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>9193</v>
       </c>
@@ -25233,7 +25291,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>9223</v>
       </c>
@@ -25286,7 +25344,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>9254</v>
       </c>
@@ -25339,7 +25397,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>9316</v>
       </c>
@@ -25392,7 +25450,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>9347</v>
       </c>
@@ -25445,7 +25503,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>9378</v>
       </c>
@@ -25498,7 +25556,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>9408</v>
       </c>
@@ -25551,7 +25609,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>9439</v>
       </c>
@@ -25604,7 +25662,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>9470</v>
       </c>
@@ -25657,7 +25715,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>9501</v>
       </c>
@@ -25710,7 +25768,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>9532</v>
       </c>
@@ -25763,7 +25821,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>9563</v>
       </c>
@@ -25816,7 +25874,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>9594</v>
       </c>
@@ -25869,7 +25927,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>9655</v>
       </c>
@@ -25922,7 +25980,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>9686</v>
       </c>
@@ -25975,7 +26033,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>9717</v>
       </c>
@@ -26028,7 +26086,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>9748</v>
       </c>
@@ -26081,7 +26139,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>9779</v>
       </c>
@@ -26134,7 +26192,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>9810</v>
       </c>
@@ -26187,7 +26245,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>9841</v>
       </c>
@@ -26240,7 +26298,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>9872</v>
       </c>
@@ -26293,7 +26351,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>9903</v>
       </c>
@@ -26346,7 +26404,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>9934</v>
       </c>
@@ -26399,7 +26457,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>9965</v>
       </c>
@@ -26452,7 +26510,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>9995</v>
       </c>
@@ -26505,7 +26563,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>10026</v>
       </c>
@@ -26558,7 +26616,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>10088</v>
       </c>
@@ -26611,7 +26669,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>10119</v>
       </c>
@@ -26664,7 +26722,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>10150</v>
       </c>
@@ -26717,7 +26775,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>10181</v>
       </c>
@@ -26770,7 +26828,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>10212</v>
       </c>
@@ -26823,7 +26881,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>10243</v>
       </c>
@@ -26876,7 +26934,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>10274</v>
       </c>
@@ -26929,7 +26987,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>10305</v>
       </c>
@@ -26982,7 +27040,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>10336</v>
       </c>
@@ -27035,7 +27093,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>10366</v>
       </c>
@@ -27088,7 +27146,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>10397</v>
       </c>
@@ -27141,7 +27199,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>10459</v>
       </c>
@@ -27194,7 +27252,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>10490</v>
       </c>
@@ -27247,7 +27305,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>10521</v>
       </c>
@@ -27300,7 +27358,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>10552</v>
       </c>
@@ -27353,7 +27411,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>10583</v>
       </c>
@@ -27406,7 +27464,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>10614</v>
       </c>
@@ -27459,7 +27517,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>10644</v>
       </c>
@@ -27512,7 +27570,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>10675</v>
       </c>
@@ -27565,7 +27623,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>10706</v>
       </c>
@@ -27618,7 +27676,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="289" spans="1:17">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>10737</v>
       </c>
@@ -27671,7 +27729,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="290" spans="1:17">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>10768</v>
       </c>
@@ -27724,7 +27782,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>10799</v>
       </c>
@@ -27777,7 +27835,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>10862</v>
       </c>
@@ -27830,7 +27888,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>10893</v>
       </c>
@@ -27883,7 +27941,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>10923</v>
       </c>
@@ -27936,7 +27994,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>10954</v>
       </c>
@@ -27989,7 +28047,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>10985</v>
       </c>
@@ -28042,7 +28100,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>11016</v>
       </c>
@@ -28095,7 +28153,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>11047</v>
       </c>
@@ -28148,7 +28206,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>11111</v>
       </c>
@@ -28201,7 +28259,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>11142</v>
       </c>
@@ -28254,7 +28312,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>11173</v>
       </c>
@@ -28307,7 +28365,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>11204</v>
       </c>
@@ -28360,7 +28418,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>11234</v>
       </c>
@@ -28413,7 +28471,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>11301</v>
       </c>
@@ -28466,7 +28524,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>11333</v>
       </c>
@@ -28519,7 +28577,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>11364</v>
       </c>
@@ -28572,7 +28630,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>11395</v>
       </c>
@@ -28625,7 +28683,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>11456</v>
       </c>
@@ -28678,7 +28736,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>11487</v>
       </c>
@@ -28731,7 +28789,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>11518</v>
       </c>
@@ -28784,7 +28842,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>11580</v>
       </c>
@@ -28837,7 +28895,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>11611</v>
       </c>
@@ -28890,7 +28948,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>11672</v>
       </c>
@@ -28943,7 +29001,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>11703</v>
       </c>
@@ -28996,7 +29054,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>11734</v>
       </c>
@@ -29049,7 +29107,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>11765</v>
       </c>
@@ -29102,7 +29160,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>11827</v>
       </c>
@@ -29155,7 +29213,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>11858</v>
       </c>
@@ -29208,7 +29266,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>11920</v>
       </c>
@@ -29261,7 +29319,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>11982</v>
       </c>
@@ -29314,7 +29372,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="321" spans="1:17">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>12012</v>
       </c>
@@ -29367,7 +29425,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="322" spans="1:17">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>12043</v>
       </c>
@@ -29420,7 +29478,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="323" spans="1:17">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>12074</v>
       </c>
@@ -29473,7 +29531,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="324" spans="1:17">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>12135</v>
       </c>
@@ -29526,7 +29584,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="325" spans="1:17">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>12166</v>
       </c>
@@ -29579,7 +29637,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="326" spans="1:17">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>12197</v>
       </c>
@@ -29632,7 +29690,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="327" spans="1:17">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>12259</v>
       </c>
@@ -29685,7 +29743,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="328" spans="1:17">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>12290</v>
       </c>
@@ -29738,7 +29796,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="329" spans="1:17">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>12351</v>
       </c>
@@ -29791,7 +29849,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="330" spans="1:17">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>12382</v>
       </c>
@@ -29844,7 +29902,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="331" spans="1:17">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>12444</v>
       </c>
@@ -29897,7 +29955,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="332" spans="1:17">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>12475</v>
       </c>
@@ -29950,7 +30008,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="333" spans="1:17">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>12537</v>
       </c>
@@ -30003,7 +30061,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="334" spans="1:17">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>12568</v>
       </c>
@@ -30056,7 +30114,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="335" spans="1:17">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>12599</v>
       </c>
@@ -30109,7 +30167,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="336" spans="1:17">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>12660</v>
       </c>
@@ -30162,7 +30220,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="337" spans="1:17">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>12691</v>
       </c>
@@ -30215,7 +30273,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="338" spans="1:17">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>12722</v>
       </c>
@@ -30268,7 +30326,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>12753</v>
       </c>
@@ -30321,7 +30379,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="340" spans="1:17">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>12815</v>
       </c>
@@ -30374,7 +30432,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="341" spans="1:17">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>12846</v>
       </c>
@@ -30427,7 +30485,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="342" spans="1:17">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>12877</v>
       </c>
@@ -30480,7 +30538,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="343" spans="1:17">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>12938</v>
       </c>
@@ -30533,7 +30591,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="344" spans="1:17">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>12969</v>
       </c>
@@ -30586,7 +30644,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="345" spans="1:17">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>13031</v>
       </c>
@@ -30639,7 +30697,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="346" spans="1:17">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>13062</v>
       </c>
@@ -30692,7 +30750,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>13124</v>
       </c>
@@ -30745,7 +30803,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>13186</v>
       </c>
@@ -30798,7 +30856,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="349" spans="1:17">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>13247</v>
       </c>
@@ -30851,7 +30909,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="350" spans="1:17">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>13278</v>
       </c>
@@ -30904,7 +30962,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="351" spans="1:17">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>13308</v>
       </c>
@@ -30957,7 +31015,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="352" spans="1:17">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>13370</v>
       </c>
@@ -31010,7 +31068,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="353" spans="1:17">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>13401</v>
       </c>
@@ -31063,7 +31121,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="354" spans="1:17">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>13432</v>
       </c>
@@ -31116,7 +31174,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="355" spans="1:17">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>13463</v>
       </c>
@@ -31169,7 +31227,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="356" spans="1:17">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>13524</v>
       </c>
@@ -31222,7 +31280,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="357" spans="1:17">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>13555</v>
       </c>
@@ -31275,7 +31333,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="358" spans="1:17">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>13586</v>
       </c>
@@ -31328,7 +31386,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="359" spans="1:17">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>13617</v>
       </c>
@@ -31381,7 +31439,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="360" spans="1:17">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>13648</v>
       </c>
@@ -31434,7 +31492,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="361" spans="1:17">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>13710</v>
       </c>
@@ -31487,7 +31545,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="362" spans="1:17">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>13743</v>
       </c>
@@ -31540,7 +31598,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="363" spans="1:17">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>13774</v>
       </c>
@@ -31593,7 +31651,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="364" spans="1:17">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>13805</v>
       </c>
@@ -31646,7 +31704,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="365" spans="1:17">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>13836</v>
       </c>
@@ -31699,7 +31757,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="366" spans="1:17">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>13866</v>
       </c>
@@ -31752,7 +31810,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="367" spans="1:17">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>13928</v>
       </c>
@@ -31805,7 +31863,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="368" spans="1:17">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>13959</v>
       </c>
@@ -31858,7 +31916,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="369" spans="1:17">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>13994</v>
       </c>
@@ -31911,7 +31969,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="370" spans="1:17">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>14025</v>
       </c>
@@ -31964,7 +32022,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="371" spans="1:17">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>14056</v>
       </c>
@@ -32017,7 +32075,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="372" spans="1:17">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>14087</v>
       </c>
@@ -32070,7 +32128,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="373" spans="1:17">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>14149</v>
       </c>
@@ -32123,7 +32181,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="374" spans="1:17">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>14180</v>
       </c>
@@ -32176,7 +32234,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="375" spans="1:17">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>14211</v>
       </c>
@@ -32229,7 +32287,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="376" spans="1:17">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>14272</v>
       </c>
@@ -32282,7 +32340,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="377" spans="1:17">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>14303</v>
       </c>
@@ -32335,7 +32393,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="378" spans="1:17">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>14365</v>
       </c>
@@ -32388,7 +32446,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="379" spans="1:17">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>14396</v>
       </c>
@@ -32441,7 +32499,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="380" spans="1:17">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>14458</v>
       </c>
@@ -32494,7 +32552,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="381" spans="1:17">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>14520</v>
       </c>
@@ -32547,7 +32605,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="382" spans="1:17">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>14551</v>
       </c>
@@ -32600,7 +32658,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="383" spans="1:17">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>14582</v>
       </c>
@@ -32653,7 +32711,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="384" spans="1:17">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>14643</v>
       </c>
@@ -32706,7 +32764,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="385" spans="1:17">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>14674</v>
       </c>
@@ -32759,7 +32817,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="386" spans="1:17">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>14705</v>
       </c>
@@ -32812,7 +32870,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="387" spans="1:17">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>14735</v>
       </c>
@@ -32865,7 +32923,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="388" spans="1:17">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>14797</v>
       </c>
@@ -32918,7 +32976,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="389" spans="1:17">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>14828</v>
       </c>
@@ -32971,7 +33029,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="390" spans="1:17">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>14859</v>
       </c>
@@ -33024,7 +33082,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="391" spans="1:17">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>14890</v>
       </c>
@@ -33077,7 +33135,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="392" spans="1:17">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>14952</v>
       </c>
@@ -33130,7 +33188,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="393" spans="1:17">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>14983</v>
       </c>
@@ -33183,7 +33241,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="394" spans="1:17">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>15014</v>
       </c>
@@ -33236,7 +33294,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="395" spans="1:17">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>15045</v>
       </c>
@@ -33289,7 +33347,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="396" spans="1:17">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>15076</v>
       </c>
@@ -33342,7 +33400,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="397" spans="1:17">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>15106</v>
       </c>
@@ -33395,7 +33453,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="398" spans="1:17">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>15177</v>
       </c>
@@ -33448,7 +33506,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="399" spans="1:17">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>15239</v>
       </c>
@@ -33501,7 +33559,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="400" spans="1:17">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>15270</v>
       </c>
@@ -33554,7 +33612,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="401" spans="1:17">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>15301</v>
       </c>
@@ -33607,7 +33665,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="402" spans="1:17">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>15331</v>
       </c>
@@ -33660,7 +33718,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="403" spans="1:17">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>15393</v>
       </c>
@@ -33713,7 +33771,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="404" spans="1:17">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>15424</v>
       </c>
@@ -33766,7 +33824,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="405" spans="1:17">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>15455</v>
       </c>
@@ -33819,7 +33877,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="406" spans="1:17">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>15486</v>
       </c>
@@ -33872,7 +33930,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="407" spans="1:17">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>15517</v>
       </c>
@@ -33925,7 +33983,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="408" spans="1:17">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>15578</v>
       </c>
@@ -33978,7 +34036,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="409" spans="1:17">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>15609</v>
       </c>
@@ -34031,7 +34089,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="410" spans="1:17">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>15640</v>
       </c>
@@ -34084,7 +34142,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="411" spans="1:17">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>15671</v>
       </c>
@@ -34137,7 +34195,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="412" spans="1:17">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>15733</v>
       </c>
@@ -34190,7 +34248,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="413" spans="1:17">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>15764</v>
       </c>
@@ -34243,7 +34301,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="414" spans="1:17">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>15794</v>
       </c>
@@ -34296,7 +34354,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="415" spans="1:17">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>15825</v>
       </c>
@@ -34349,7 +34407,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="416" spans="1:17">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>15887</v>
       </c>
@@ -34402,7 +34460,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="417" spans="1:17">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>15918</v>
       </c>
@@ -34455,7 +34513,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="418" spans="1:17">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>15949</v>
       </c>
@@ -34508,7 +34566,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="419" spans="1:17">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>15980</v>
       </c>
@@ -34561,7 +34619,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="420" spans="1:17">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>16011</v>
       </c>
@@ -34614,7 +34672,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="421" spans="1:17">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>16042</v>
       </c>
@@ -34667,7 +34725,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="422" spans="1:17">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>16072</v>
       </c>
@@ -34720,7 +34778,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="423" spans="1:17">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>16134</v>
       </c>
@@ -34773,7 +34831,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="424" spans="1:17">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>16166</v>
       </c>
@@ -34826,7 +34884,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="425" spans="1:17">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>16197</v>
       </c>
@@ -34879,7 +34937,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="426" spans="1:17">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>16228</v>
       </c>
@@ -34932,7 +34990,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="427" spans="1:17">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>16259</v>
       </c>
@@ -34985,7 +35043,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="428" spans="1:17">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>16290</v>
       </c>
@@ -35038,7 +35096,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="429" spans="1:17">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>16321</v>
       </c>
@@ -35091,7 +35149,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="430" spans="1:17">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>16351</v>
       </c>
@@ -35144,7 +35202,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="431" spans="1:17">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>16382</v>
       </c>
@@ -35197,7 +35255,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="432" spans="1:17">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>16443</v>
       </c>
@@ -35250,7 +35308,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="433" spans="1:17">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>16474</v>
       </c>
@@ -35303,7 +35361,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="434" spans="1:17">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>16505</v>
       </c>
@@ -35356,7 +35414,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="435" spans="1:17">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>16536</v>
       </c>
@@ -35409,7 +35467,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="436" spans="1:17">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>16567</v>
       </c>
@@ -35462,7 +35520,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="437" spans="1:17">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>16598</v>
       </c>
@@ -35515,7 +35573,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="438" spans="1:17">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>16629</v>
       </c>
@@ -35568,7 +35626,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="439" spans="1:17">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>16660</v>
       </c>
@@ -35621,7 +35679,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="440" spans="1:17">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>16691</v>
       </c>
@@ -35674,7 +35732,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="441" spans="1:17">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>16722</v>
       </c>
@@ -35727,7 +35785,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="442" spans="1:17">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>16753</v>
       </c>
@@ -35780,7 +35838,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="443" spans="1:17">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>16814</v>
       </c>
@@ -35833,7 +35891,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="444" spans="1:17">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>16845</v>
       </c>
@@ -35886,7 +35944,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="445" spans="1:17">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>16876</v>
       </c>
@@ -35939,7 +35997,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="446" spans="1:17">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>16907</v>
       </c>
@@ -35992,7 +36050,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="447" spans="1:17">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>16938</v>
       </c>
@@ -36045,7 +36103,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="448" spans="1:17">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>16969</v>
       </c>
@@ -36098,7 +36156,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="449" spans="1:17">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>17031</v>
       </c>
@@ -36151,7 +36209,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="450" spans="1:17">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>17062</v>
       </c>
@@ -36204,7 +36262,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="451" spans="1:17">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>17092</v>
       </c>
@@ -36257,7 +36315,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="452" spans="1:17">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>17123</v>
       </c>
@@ -36310,7 +36368,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="453" spans="1:17">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>17185</v>
       </c>
@@ -36363,7 +36421,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="454" spans="1:17">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>17216</v>
       </c>
@@ -36416,7 +36474,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="455" spans="1:17">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>17247</v>
       </c>
@@ -36469,7 +36527,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="456" spans="1:17">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>17309</v>
       </c>
@@ -36522,7 +36580,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="457" spans="1:17">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>17340</v>
       </c>
@@ -36575,7 +36633,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="458" spans="1:17">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>17371</v>
       </c>
@@ -36628,7 +36686,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="459" spans="1:17">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>17402</v>
       </c>
@@ -36681,7 +36739,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="460" spans="1:17">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>17433</v>
       </c>
@@ -36734,7 +36792,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="461" spans="1:17">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>17494</v>
       </c>
@@ -36787,7 +36845,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="462" spans="1:17">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>17525</v>
       </c>
@@ -36840,7 +36898,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="463" spans="1:17">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>17556</v>
       </c>
@@ -36893,7 +36951,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="464" spans="1:17">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>17587</v>
       </c>
@@ -36946,7 +37004,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="465" spans="1:17">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>17618</v>
       </c>
@@ -36999,7 +37057,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="466" spans="1:17">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>17680</v>
       </c>
@@ -37052,7 +37110,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="467" spans="1:17">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>17710</v>
       </c>
@@ -37105,7 +37163,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="468" spans="1:17">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>17741</v>
       </c>
@@ -37158,7 +37216,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="469" spans="1:17">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>17803</v>
       </c>
@@ -37211,7 +37269,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="470" spans="1:17">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>17834</v>
       </c>
@@ -37264,7 +37322,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="471" spans="1:17">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>17865</v>
       </c>
@@ -37317,7 +37375,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="472" spans="1:17">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>17895</v>
       </c>
@@ -37370,7 +37428,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="473" spans="1:17">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>17926</v>
       </c>
@@ -37423,7 +37481,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="474" spans="1:17">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>17988</v>
       </c>
@@ -37476,7 +37534,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="475" spans="1:17">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>18019</v>
       </c>
@@ -37529,7 +37587,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="476" spans="1:17">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>18050</v>
       </c>
@@ -37582,7 +37640,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="477" spans="1:17">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>18081</v>
       </c>
@@ -37635,7 +37693,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="478" spans="1:17">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>18112</v>
       </c>
@@ -37688,7 +37746,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="479" spans="1:17">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>18174</v>
       </c>
@@ -37741,7 +37799,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="480" spans="1:17">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>18205</v>
       </c>
@@ -37794,7 +37852,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="481" spans="1:17">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>18236</v>
       </c>
@@ -37847,7 +37905,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="482" spans="1:17">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>18267</v>
       </c>
@@ -37900,7 +37958,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="483" spans="1:17">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>18328</v>
       </c>
@@ -37953,7 +38011,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="484" spans="1:17">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>18359</v>
       </c>
@@ -38006,7 +38064,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="485" spans="1:17">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>18390</v>
       </c>
@@ -38059,7 +38117,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="486" spans="1:17">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>18421</v>
       </c>
@@ -38112,7 +38170,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="487" spans="1:17">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>18452</v>
       </c>
@@ -38165,7 +38223,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="488" spans="1:17">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>18483</v>
       </c>
@@ -38218,7 +38276,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="489" spans="1:17">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>18545</v>
       </c>
@@ -38271,7 +38329,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="490" spans="1:17">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>18576</v>
       </c>
@@ -38324,7 +38382,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="491" spans="1:17">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>18607</v>
       </c>
@@ -38377,7 +38435,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="492" spans="1:17">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>18637</v>
       </c>
@@ -38430,7 +38488,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="493" spans="1:17">
+    <row r="493" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>18668</v>
       </c>
@@ -38483,7 +38541,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="494" spans="1:17">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>18730</v>
       </c>
@@ -38536,7 +38594,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="495" spans="1:17">
+    <row r="495" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>18761</v>
       </c>
@@ -38589,7 +38647,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="496" spans="1:17">
+    <row r="496" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>18792</v>
       </c>
@@ -38642,7 +38700,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="497" spans="1:17">
+    <row r="497" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>18854</v>
       </c>
@@ -38695,7 +38753,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="498" spans="1:17">
+    <row r="498" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>18885</v>
       </c>
@@ -38748,7 +38806,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="499" spans="1:17">
+    <row r="499" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>18947</v>
       </c>
@@ -38801,7 +38859,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="500" spans="1:17">
+    <row r="500" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>18978</v>
       </c>
@@ -38854,7 +38912,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="501" spans="1:17">
+    <row r="501" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>19039</v>
       </c>
@@ -38907,7 +38965,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="502" spans="1:17">
+    <row r="502" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>19070</v>
       </c>
@@ -38960,7 +39018,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="503" spans="1:17">
+    <row r="503" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>19101</v>
       </c>
@@ -39013,7 +39071,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="504" spans="1:17">
+    <row r="504" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>19162</v>
       </c>
@@ -39066,7 +39124,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="505" spans="1:17">
+    <row r="505" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>19193</v>
       </c>
@@ -39119,7 +39177,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="506" spans="1:17">
+    <row r="506" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>19224</v>
       </c>
@@ -39172,7 +39230,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="507" spans="1:17">
+    <row r="507" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>19255</v>
       </c>
@@ -39225,7 +39283,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="508" spans="1:17">
+    <row r="508" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>19317</v>
       </c>
@@ -39278,7 +39336,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="509" spans="1:17">
+    <row r="509" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>19348</v>
       </c>
@@ -39331,7 +39389,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="510" spans="1:17">
+    <row r="510" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>19378</v>
       </c>
@@ -39384,7 +39442,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="511" spans="1:17">
+    <row r="511" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>19409</v>
       </c>
@@ -39437,7 +39495,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="512" spans="1:17">
+    <row r="512" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>19440</v>
       </c>
@@ -39490,7 +39548,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="513" spans="1:17">
+    <row r="513" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>19471</v>
       </c>
@@ -39543,7 +39601,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="514" spans="1:17">
+    <row r="514" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>19533</v>
       </c>
@@ -39596,7 +39654,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="515" spans="1:17">
+    <row r="515" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>19564</v>
       </c>
@@ -39649,7 +39707,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="516" spans="1:17">
+    <row r="516" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>19595</v>
       </c>
@@ -39702,7 +39760,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="517" spans="1:17">
+    <row r="517" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>19626</v>
       </c>
@@ -39755,7 +39813,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="518" spans="1:17">
+    <row r="518" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>19657</v>
       </c>
@@ -39808,7 +39866,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="519" spans="1:17">
+    <row r="519" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>19687</v>
       </c>
@@ -39861,7 +39919,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="520" spans="1:17">
+    <row r="520" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>19718</v>
       </c>
@@ -39914,7 +39972,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="521" spans="1:17">
+    <row r="521" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>19751</v>
       </c>
@@ -39967,7 +40025,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="522" spans="1:17">
+    <row r="522" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>19813</v>
       </c>
@@ -40020,7 +40078,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="523" spans="1:17">
+    <row r="523" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>19844</v>
       </c>
@@ -40073,7 +40131,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="524" spans="1:17">
+    <row r="524" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>19875</v>
       </c>
@@ -40126,7 +40184,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="525" spans="1:17">
+    <row r="525" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>19906</v>
       </c>
@@ -40179,7 +40237,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="526" spans="1:17">
+    <row r="526" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>19937</v>
       </c>
@@ -40232,7 +40290,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="527" spans="1:17">
+    <row r="527" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>19968</v>
       </c>
@@ -40285,7 +40343,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="528" spans="1:17">
+    <row r="528" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>19999</v>
       </c>
@@ -40338,7 +40396,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="529" spans="1:17">
+    <row r="529" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>20030</v>
       </c>
@@ -40391,7 +40449,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="530" spans="1:17">
+    <row r="530" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>20060</v>
       </c>
@@ -40444,7 +40502,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="531" spans="1:17">
+    <row r="531" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>20122</v>
       </c>
@@ -40497,7 +40555,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="532" spans="1:17">
+    <row r="532" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>20153</v>
       </c>
@@ -40550,7 +40608,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="533" spans="1:17">
+    <row r="533" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>20183</v>
       </c>
@@ -40603,7 +40661,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="534" spans="1:17">
+    <row r="534" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>20214</v>
       </c>
@@ -40656,7 +40714,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="535" spans="1:17">
+    <row r="535" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>20245</v>
       </c>
@@ -40709,7 +40767,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="536" spans="1:17">
+    <row r="536" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>20276</v>
       </c>
@@ -40762,7 +40820,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="537" spans="1:17">
+    <row r="537" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>20307</v>
       </c>
@@ -40815,7 +40873,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="538" spans="1:17">
+    <row r="538" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>20369</v>
       </c>
@@ -40868,7 +40926,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="539" spans="1:17">
+    <row r="539" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>20400</v>
       </c>
@@ -40921,7 +40979,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="540" spans="1:17">
+    <row r="540" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>20431</v>
       </c>
@@ -40974,7 +41032,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="541" spans="1:17">
+    <row r="541" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>20461</v>
       </c>
@@ -41027,7 +41085,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="542" spans="1:17">
+    <row r="542" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>20523</v>
       </c>
@@ -41080,7 +41138,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="543" spans="1:17">
+    <row r="543" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>20554</v>
       </c>
@@ -41133,7 +41191,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="544" spans="1:17">
+    <row r="544" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>20616</v>
       </c>
@@ -41186,7 +41244,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="545" spans="1:17">
+    <row r="545" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>20647</v>
       </c>
@@ -41239,7 +41297,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="546" spans="1:17">
+    <row r="546" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>20709</v>
       </c>
@@ -41292,7 +41350,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="547" spans="1:17">
+    <row r="547" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>20771</v>
       </c>
@@ -41345,7 +41403,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="548" spans="1:17">
+    <row r="548" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>20832</v>
       </c>
@@ -41398,7 +41456,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="549" spans="1:17">
+    <row r="549" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>20894</v>
       </c>
@@ -41451,7 +41509,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="550" spans="1:17">
+    <row r="550" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>20956</v>
       </c>
@@ -41504,7 +41562,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="551" spans="1:17">
+    <row r="551" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>21017</v>
       </c>
@@ -41557,7 +41615,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="552" spans="1:17">
+    <row r="552" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>21048</v>
       </c>
@@ -41610,7 +41668,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="553" spans="1:17">
+    <row r="553" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>21109</v>
       </c>
@@ -41663,7 +41721,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="554" spans="1:17">
+    <row r="554" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>21171</v>
       </c>
@@ -41716,7 +41774,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="555" spans="1:17">
+    <row r="555" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>21233</v>
       </c>
@@ -41769,7 +41827,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="556" spans="1:17">
+    <row r="556" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>21263</v>
       </c>
@@ -41822,7 +41880,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="557" spans="1:17">
+    <row r="557" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>21325</v>
       </c>
@@ -41875,7 +41933,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="558" spans="1:17">
+    <row r="558" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>21356</v>
       </c>
@@ -41928,7 +41986,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="559" spans="1:17">
+    <row r="559" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>21387</v>
       </c>
@@ -41981,7 +42039,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="560" spans="1:17">
+    <row r="560" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>21449</v>
       </c>
@@ -42034,7 +42092,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="561" spans="1:17">
+    <row r="561" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>21480</v>
       </c>
@@ -42087,7 +42145,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="562" spans="1:17">
+    <row r="562" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>21511</v>
       </c>
@@ -42140,7 +42198,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="563" spans="1:17">
+    <row r="563" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>21542</v>
       </c>
@@ -42193,7 +42251,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="564" spans="1:17">
+    <row r="564" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>21573</v>
       </c>
@@ -42246,7 +42304,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="565" spans="1:17">
+    <row r="565" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>21635</v>
       </c>
@@ -42299,7 +42357,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="566" spans="1:17">
+    <row r="566" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>21665</v>
       </c>
@@ -42352,7 +42410,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="567" spans="1:17">
+    <row r="567" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>21696</v>
       </c>
@@ -42405,7 +42463,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="568" spans="1:17">
+    <row r="568" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>21727</v>
       </c>
@@ -42458,7 +42516,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="569" spans="1:17">
+    <row r="569" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>21758</v>
       </c>
@@ -42511,7 +42569,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="570" spans="1:17">
+    <row r="570" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>21820</v>
       </c>
@@ -42564,7 +42622,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="571" spans="1:17">
+    <row r="571" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>21851</v>
       </c>
@@ -42617,7 +42675,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="572" spans="1:17">
+    <row r="572" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>21882</v>
       </c>
@@ -42670,7 +42728,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="573" spans="1:17">
+    <row r="573" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>21913</v>
       </c>
@@ -42723,7 +42781,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="574" spans="1:17">
+    <row r="574" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>21944</v>
       </c>
@@ -42776,7 +42834,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="575" spans="1:17">
+    <row r="575" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>21975</v>
       </c>
@@ -42829,7 +42887,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="576" spans="1:17">
+    <row r="576" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>22006</v>
       </c>
@@ -42882,7 +42940,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="577" spans="1:17">
+    <row r="577" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>22067</v>
       </c>
@@ -42935,7 +42993,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="578" spans="1:17">
+    <row r="578" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>22098</v>
       </c>
@@ -42988,7 +43046,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="579" spans="1:17">
+    <row r="579" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>22129</v>
       </c>
@@ -43041,7 +43099,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="580" spans="1:17">
+    <row r="580" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>22159</v>
       </c>
@@ -43094,7 +43152,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="581" spans="1:17">
+    <row r="581" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>22190</v>
       </c>
@@ -43147,7 +43205,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="582" spans="1:17">
+    <row r="582" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>22221</v>
       </c>
@@ -43200,7 +43258,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="583" spans="1:17">
+    <row r="583" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>22252</v>
       </c>
@@ -43253,7 +43311,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="584" spans="1:17">
+    <row r="584" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>22283</v>
       </c>
@@ -43306,7 +43364,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="585" spans="1:17">
+    <row r="585" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>22345</v>
       </c>
@@ -43359,7 +43417,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="586" spans="1:17">
+    <row r="586" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>22376</v>
       </c>
@@ -43412,7 +43470,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="587" spans="1:17">
+    <row r="587" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>22406</v>
       </c>
@@ -43465,7 +43523,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="588" spans="1:17">
+    <row r="588" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>22437</v>
       </c>
@@ -43518,7 +43576,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="589" spans="1:17">
+    <row r="589" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>22468</v>
       </c>
@@ -43571,7 +43629,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="590" spans="1:17">
+    <row r="590" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>22530</v>
       </c>
@@ -43624,7 +43682,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="591" spans="1:17">
+    <row r="591" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>22561</v>
       </c>
@@ -43677,7 +43735,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="592" spans="1:17">
+    <row r="592" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>22592</v>
       </c>
@@ -43730,7 +43788,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="593" spans="1:17">
+    <row r="593" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>22623</v>
       </c>
@@ -43783,7 +43841,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="594" spans="1:17">
+    <row r="594" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>22654</v>
       </c>
@@ -43836,7 +43894,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="595" spans="1:17">
+    <row r="595" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>22685</v>
       </c>
@@ -43889,7 +43947,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="596" spans="1:17">
+    <row r="596" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>22715</v>
       </c>
@@ -43942,7 +44000,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="597" spans="1:17">
+    <row r="597" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>22777</v>
       </c>
@@ -43995,7 +44053,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="598" spans="1:17">
+    <row r="598" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>22808</v>
       </c>
@@ -44048,7 +44106,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="599" spans="1:17">
+    <row r="599" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>22839</v>
       </c>
@@ -44101,7 +44159,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="600" spans="1:17">
+    <row r="600" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>22870</v>
       </c>
@@ -44154,7 +44212,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="601" spans="1:17">
+    <row r="601" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>22901</v>
       </c>
@@ -44207,7 +44265,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="602" spans="1:17">
+    <row r="602" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>22963</v>
       </c>
@@ -44260,7 +44318,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="603" spans="1:17">
+    <row r="603" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>22994</v>
       </c>
@@ -44313,7 +44371,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="604" spans="1:17">
+    <row r="604" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>23025</v>
       </c>
@@ -44366,7 +44424,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="605" spans="1:17">
+    <row r="605" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>23056</v>
       </c>
@@ -44419,7 +44477,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="606" spans="1:17">
+    <row r="606" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>23086</v>
       </c>
@@ -44472,7 +44530,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="607" spans="1:17">
+    <row r="607" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>23117</v>
       </c>
@@ -44525,7 +44583,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="608" spans="1:17">
+    <row r="608" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>23179</v>
       </c>
@@ -44578,7 +44636,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="609" spans="1:17">
+    <row r="609" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>23210</v>
       </c>
@@ -44631,7 +44689,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="610" spans="1:17">
+    <row r="610" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>23241</v>
       </c>
@@ -44684,7 +44742,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="611" spans="1:17">
+    <row r="611" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>23272</v>
       </c>
@@ -44737,7 +44795,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="612" spans="1:17">
+    <row r="612" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>23303</v>
       </c>
@@ -44790,7 +44848,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="613" spans="1:17">
+    <row r="613" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>23334</v>
       </c>
@@ -44843,7 +44901,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="614" spans="1:17">
+    <row r="614" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>23365</v>
       </c>
@@ -44896,7 +44954,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="615" spans="1:17">
+    <row r="615" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>23396</v>
       </c>
@@ -44949,7 +45007,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="616" spans="1:17">
+    <row r="616" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>23466</v>
       </c>
@@ -45002,7 +45060,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="617" spans="1:17">
+    <row r="617" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>23497</v>
       </c>
@@ -45055,7 +45113,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="618" spans="1:17">
+    <row r="618" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>23528</v>
       </c>
@@ -45108,7 +45166,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="619" spans="1:17">
+    <row r="619" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>23559</v>
       </c>
@@ -45161,7 +45219,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="620" spans="1:17">
+    <row r="620" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>23595</v>
       </c>
@@ -45214,7 +45272,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="621" spans="1:17">
+    <row r="621" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>23626</v>
       </c>
@@ -45267,7 +45325,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="622" spans="1:17">
+    <row r="622" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>23656</v>
       </c>
@@ -45320,7 +45378,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="623" spans="1:17">
+    <row r="623" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>23718</v>
       </c>
@@ -45373,7 +45431,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="624" spans="1:17">
+    <row r="624" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>23749</v>
       </c>
@@ -45426,7 +45484,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="625" spans="1:17">
+    <row r="625" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>23780</v>
       </c>
@@ -45479,7 +45537,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="626" spans="1:17">
+    <row r="626" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>23811</v>
       </c>
@@ -45532,7 +45590,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="627" spans="1:17">
+    <row r="627" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>23842</v>
       </c>
@@ -45585,7 +45643,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="628" spans="1:17">
+    <row r="628" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>23873</v>
       </c>
@@ -45638,7 +45696,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="629" spans="1:17">
+    <row r="629" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>23904</v>
       </c>
@@ -45691,7 +45749,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="630" spans="1:17">
+    <row r="630" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>23935</v>
       </c>
@@ -45744,7 +45802,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="631" spans="1:17">
+    <row r="631" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>23965</v>
       </c>
@@ -45797,7 +45855,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="632" spans="1:17">
+    <row r="632" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>24027</v>
       </c>
@@ -45850,7 +45908,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="633" spans="1:17">
+    <row r="633" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>24058</v>
       </c>
@@ -45903,7 +45961,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="634" spans="1:17">
+    <row r="634" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>24090</v>
       </c>
@@ -45956,7 +46014,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="635" spans="1:17">
+    <row r="635" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>24121</v>
       </c>
@@ -46009,7 +46067,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="636" spans="1:17">
+    <row r="636" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>24152</v>
       </c>
@@ -46062,7 +46120,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="637" spans="1:17">
+    <row r="637" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>24183</v>
       </c>
@@ -46115,7 +46173,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="638" spans="1:17">
+    <row r="638" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>24214</v>
       </c>
@@ -46168,7 +46226,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="639" spans="1:17">
+    <row r="639" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>24245</v>
       </c>
@@ -46221,7 +46279,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="640" spans="1:17">
+    <row r="640" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>24276</v>
       </c>
@@ -46274,7 +46332,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="641" spans="1:17">
+    <row r="641" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>24307</v>
       </c>
@@ -46327,7 +46385,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="642" spans="1:17">
+    <row r="642" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>24368</v>
       </c>
@@ -46380,7 +46438,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="643" spans="1:17">
+    <row r="643" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>24399</v>
       </c>
@@ -46433,7 +46491,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="644" spans="1:17">
+    <row r="644" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>24430</v>
       </c>
@@ -46486,7 +46544,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="645" spans="1:17">
+    <row r="645" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>24461</v>
       </c>
@@ -46539,7 +46597,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="646" spans="1:17">
+    <row r="646" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>24492</v>
       </c>
@@ -46592,7 +46650,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="647" spans="1:17">
+    <row r="647" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>24524</v>
       </c>
@@ -46645,7 +46703,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="648" spans="1:17">
+    <row r="648" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>24586</v>
       </c>
@@ -46698,7 +46756,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="649" spans="1:17">
+    <row r="649" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>24617</v>
       </c>
@@ -46751,7 +46809,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="650" spans="1:17">
+    <row r="650" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>24648</v>
       </c>
@@ -46804,7 +46862,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="651" spans="1:17">
+    <row r="651" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>24679</v>
       </c>
@@ -46857,7 +46915,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="652" spans="1:17">
+    <row r="652" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>24740</v>
       </c>
@@ -46910,7 +46968,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="653" spans="1:17">
+    <row r="653" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>24771</v>
       </c>
@@ -46963,7 +47021,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="654" spans="1:17">
+    <row r="654" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>24802</v>
       </c>
@@ -47016,7 +47074,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="655" spans="1:17">
+    <row r="655" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>24833</v>
       </c>
@@ -47069,7 +47127,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="656" spans="1:17">
+    <row r="656" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>24864</v>
       </c>
@@ -47122,7 +47180,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="657" spans="1:17">
+    <row r="657" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>24895</v>
       </c>
@@ -47175,7 +47233,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="658" spans="1:17">
+    <row r="658" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>24957</v>
       </c>
@@ -47228,7 +47286,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="659" spans="1:17">
+    <row r="659" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>24988</v>
       </c>
@@ -47281,7 +47339,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="660" spans="1:17">
+    <row r="660" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>25019</v>
       </c>
@@ -47334,7 +47392,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="661" spans="1:17">
+    <row r="661" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>25050</v>
       </c>
@@ -47387,7 +47445,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="662" spans="1:17">
+    <row r="662" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>25111</v>
       </c>
@@ -47440,7 +47498,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="663" spans="1:17">
+    <row r="663" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>25143</v>
       </c>
@@ -47493,7 +47551,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="664" spans="1:17">
+    <row r="664" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>25174</v>
       </c>
@@ -47546,7 +47604,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="665" spans="1:17">
+    <row r="665" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>25204</v>
       </c>
@@ -47599,7 +47657,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="666" spans="1:17">
+    <row r="666" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>25235</v>
       </c>
@@ -47652,7 +47710,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="667" spans="1:17">
+    <row r="667" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>25297</v>
       </c>
@@ -47705,7 +47763,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="668" spans="1:17">
+    <row r="668" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>25328</v>
       </c>
@@ -47758,7 +47816,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="669" spans="1:17">
+    <row r="669" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>25359</v>
       </c>
@@ -47811,7 +47869,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="670" spans="1:17">
+    <row r="670" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>25390</v>
       </c>
@@ -47864,7 +47922,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="671" spans="1:17">
+    <row r="671" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>25421</v>
       </c>
@@ -47917,7 +47975,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="672" spans="1:17">
+    <row r="672" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>25452</v>
       </c>
@@ -47970,7 +48028,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="673" spans="1:17">
+    <row r="673" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>25483</v>
       </c>
@@ -48023,7 +48081,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="674" spans="1:17">
+    <row r="674" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>25544</v>
       </c>
@@ -48076,7 +48134,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="675" spans="1:17">
+    <row r="675" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>25575</v>
       </c>
@@ -48129,7 +48187,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="676" spans="1:17">
+    <row r="676" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>25606</v>
       </c>
@@ -48182,7 +48240,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="677" spans="1:17">
+    <row r="677" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>25637</v>
       </c>
@@ -48235,7 +48293,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="678" spans="1:17">
+    <row r="678" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>25668</v>
       </c>
@@ -48288,7 +48346,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="679" spans="1:17">
+    <row r="679" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>25699</v>
       </c>
@@ -48341,7 +48399,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="680" spans="1:17">
+    <row r="680" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>25730</v>
       </c>
@@ -48394,7 +48452,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="681" spans="1:17">
+    <row r="681" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>25762</v>
       </c>
@@ -48447,7 +48505,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="682" spans="1:17">
+    <row r="682" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>25793</v>
       </c>
@@ -48500,7 +48558,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="683" spans="1:17">
+    <row r="683" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>25855</v>
       </c>
@@ -48553,7 +48611,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="684" spans="1:17">
+    <row r="684" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>25885</v>
       </c>
@@ -48606,7 +48664,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="685" spans="1:17">
+    <row r="685" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>25916</v>
       </c>
@@ -48659,7 +48717,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="686" spans="1:17">
+    <row r="686" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>25947</v>
       </c>
@@ -48712,7 +48770,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="687" spans="1:17">
+    <row r="687" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>25978</v>
       </c>
@@ -48765,7 +48823,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="688" spans="1:17">
+    <row r="688" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>26009</v>
       </c>
@@ -48818,7 +48876,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="689" spans="1:17">
+    <row r="689" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>26040</v>
       </c>
@@ -48871,7 +48929,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="690" spans="1:17">
+    <row r="690" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>26071</v>
       </c>
@@ -48924,7 +48982,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="691" spans="1:17">
+    <row r="691" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>26102</v>
       </c>
@@ -48977,7 +49035,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="692" spans="1:17">
+    <row r="692" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>26164</v>
       </c>
@@ -49030,7 +49088,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="693" spans="1:17">
+    <row r="693" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>26195</v>
       </c>
@@ -49083,7 +49141,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="694" spans="1:17">
+    <row r="694" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>26226</v>
       </c>
@@ -49136,7 +49194,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="695" spans="1:17">
+    <row r="695" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>26256</v>
       </c>
@@ -49189,7 +49247,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="696" spans="1:17">
+    <row r="696" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>26287</v>
       </c>
@@ -49242,7 +49300,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="697" spans="1:17">
+    <row r="697" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>26318</v>
       </c>
@@ -49295,7 +49353,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="698" spans="1:17">
+    <row r="698" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>26349</v>
       </c>
@@ -49348,7 +49406,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="699" spans="1:17">
+    <row r="699" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>26380</v>
       </c>
@@ -49401,7 +49459,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="700" spans="1:17">
+    <row r="700" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>26411</v>
       </c>
@@ -49454,7 +49512,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="701" spans="1:17">
+    <row r="701" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>26442</v>
       </c>
@@ -49507,7 +49565,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="702" spans="1:17">
+    <row r="702" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>26473</v>
       </c>
@@ -49560,7 +49618,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="703" spans="1:17">
+    <row r="703" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>26534</v>
       </c>
@@ -49613,7 +49671,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="704" spans="1:17">
+    <row r="704" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>26565</v>
       </c>
@@ -49666,7 +49724,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="705" spans="1:17">
+    <row r="705" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>26596</v>
       </c>
@@ -49719,7 +49777,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="706" spans="1:17">
+    <row r="706" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>26627</v>
       </c>
@@ -49772,7 +49830,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="707" spans="1:17">
+    <row r="707" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>26658</v>
       </c>
@@ -49825,7 +49883,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="708" spans="1:17">
+    <row r="708" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>26689</v>
       </c>
@@ -49878,7 +49936,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="709" spans="1:17">
+    <row r="709" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>26720</v>
       </c>
@@ -49931,7 +49989,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="710" spans="1:17">
+    <row r="710" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>26751</v>
       </c>
@@ -49984,7 +50042,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="711" spans="1:17">
+    <row r="711" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>26782</v>
       </c>
@@ -50037,7 +50095,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="712" spans="1:17">
+    <row r="712" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>26812</v>
       </c>
@@ -50090,7 +50148,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="713" spans="1:17">
+    <row r="713" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>26843</v>
       </c>
@@ -50143,7 +50201,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="714" spans="1:17">
+    <row r="714" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>26874</v>
       </c>
@@ -50196,7 +50254,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="715" spans="1:17">
+    <row r="715" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>26905</v>
       </c>
@@ -50249,7 +50307,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="716" spans="1:17">
+    <row r="716" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>26936</v>
       </c>
@@ -50302,7 +50360,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="717" spans="1:17">
+    <row r="717" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>26998</v>
       </c>
@@ -50355,7 +50413,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="718" spans="1:17">
+    <row r="718" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>27029</v>
       </c>
@@ -50408,7 +50466,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="719" spans="1:17">
+    <row r="719" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>27060</v>
       </c>
@@ -50461,7 +50519,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="720" spans="1:17">
+    <row r="720" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>27091</v>
       </c>
@@ -50514,7 +50572,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="721" spans="1:17">
+    <row r="721" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>27121</v>
       </c>
@@ -50567,7 +50625,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="722" spans="1:17">
+    <row r="722" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>27152</v>
       </c>
@@ -50620,7 +50678,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="723" spans="1:17">
+    <row r="723" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>27183</v>
       </c>
@@ -50673,7 +50731,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="724" spans="1:17">
+    <row r="724" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>27214</v>
       </c>
@@ -50726,7 +50784,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="725" spans="1:17">
+    <row r="725" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>27245</v>
       </c>
@@ -50779,7 +50837,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="726" spans="1:17">
+    <row r="726" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>27276</v>
       </c>
@@ -50832,7 +50890,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="727" spans="1:17">
+    <row r="727" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>27307</v>
       </c>
@@ -50885,7 +50943,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="728" spans="1:17">
+    <row r="728" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>27338</v>
       </c>
@@ -50938,7 +50996,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="729" spans="1:17">
+    <row r="729" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>27369</v>
       </c>
@@ -50991,7 +51049,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="730" spans="1:17">
+    <row r="730" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>27400</v>
       </c>
@@ -51044,7 +51102,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="731" spans="1:17">
+    <row r="731" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>27431</v>
       </c>
@@ -51097,7 +51155,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="732" spans="1:17">
+    <row r="732" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>27461</v>
       </c>
@@ -51150,7 +51208,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="733" spans="1:17">
+    <row r="733" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>27523</v>
       </c>
@@ -51203,7 +51261,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="734" spans="1:17">
+    <row r="734" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>27554</v>
       </c>
@@ -51256,7 +51314,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="735" spans="1:17">
+    <row r="735" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>27585</v>
       </c>
@@ -51309,7 +51367,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="736" spans="1:17">
+    <row r="736" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>27615</v>
       </c>
@@ -51362,7 +51420,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="737" spans="1:17">
+    <row r="737" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>27646</v>
       </c>
@@ -51415,7 +51473,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="738" spans="1:17">
+    <row r="738" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>27677</v>
       </c>
@@ -51468,7 +51526,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="739" spans="1:17">
+    <row r="739" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>27708</v>
       </c>
@@ -51521,7 +51579,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="740" spans="1:17">
+    <row r="740" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>27739</v>
       </c>
@@ -51574,7 +51632,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="741" spans="1:17">
+    <row r="741" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>27770</v>
       </c>
@@ -51627,7 +51685,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="742" spans="1:17">
+    <row r="742" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>27801</v>
       </c>
@@ -51680,7 +51738,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="743" spans="1:17">
+    <row r="743" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>27832</v>
       </c>
@@ -51733,7 +51791,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="744" spans="1:17">
+    <row r="744" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>27863</v>
       </c>
@@ -51786,7 +51844,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="745" spans="1:17">
+    <row r="745" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>27924</v>
       </c>
@@ -51839,7 +51897,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="746" spans="1:17">
+    <row r="746" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>27955</v>
       </c>
@@ -51892,7 +51950,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="747" spans="1:17">
+    <row r="747" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>27986</v>
       </c>
@@ -51945,7 +52003,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="748" spans="1:17">
+    <row r="748" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>28017</v>
       </c>
@@ -51998,7 +52056,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="749" spans="1:17">
+    <row r="749" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>28048</v>
       </c>
@@ -52051,7 +52109,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="750" spans="1:17">
+    <row r="750" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>28079</v>
       </c>
@@ -52104,7 +52162,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="751" spans="1:17">
+    <row r="751" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>28110</v>
       </c>
@@ -52157,7 +52215,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="752" spans="1:17">
+    <row r="752" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>28172</v>
       </c>
@@ -52210,7 +52268,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="753" spans="1:17">
+    <row r="753" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>28203</v>
       </c>
@@ -52263,7 +52321,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="754" spans="1:17">
+    <row r="754" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>28233</v>
       </c>
@@ -52316,7 +52374,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="755" spans="1:17">
+    <row r="755" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>28295</v>
       </c>
@@ -52369,7 +52427,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="756" spans="1:17">
+    <row r="756" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>28356</v>
       </c>
@@ -52422,7 +52480,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="757" spans="1:17">
+    <row r="757" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>28418</v>
       </c>
@@ -52475,7 +52533,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="758" spans="1:17">
+    <row r="758" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>28480</v>
       </c>
@@ -52528,7 +52586,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="759" spans="1:17">
+    <row r="759" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>28665</v>
       </c>
@@ -52581,7 +52639,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="760" spans="1:17">
+    <row r="760" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>28758</v>
       </c>
@@ -52634,7 +52692,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="761" spans="1:17">
+    <row r="761" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>28820</v>
       </c>
@@ -52687,7 +52745,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="762" spans="1:17">
+    <row r="762" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>28851</v>
       </c>
@@ -52740,7 +52798,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="763" spans="1:17">
+    <row r="763" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>28882</v>
       </c>
@@ -52793,7 +52851,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="764" spans="1:17">
+    <row r="764" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>28943</v>
       </c>
@@ -52846,7 +52904,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="765" spans="1:17">
+    <row r="765" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>28974</v>
       </c>
@@ -52899,7 +52957,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="766" spans="1:17">
+    <row r="766" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>29005</v>
       </c>
@@ -52952,7 +53010,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="767" spans="1:17">
+    <row r="767" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>29036</v>
       </c>
@@ -53005,7 +53063,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="768" spans="1:17">
+    <row r="768" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>29098</v>
       </c>
@@ -53058,7 +53116,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="769" spans="1:17">
+    <row r="769" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>29129</v>
       </c>
@@ -53111,7 +53169,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="770" spans="1:17">
+    <row r="770" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>29195</v>
       </c>
@@ -53164,7 +53222,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="771" spans="1:17">
+    <row r="771" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>29257</v>
       </c>
@@ -53217,7 +53275,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="772" spans="1:17">
+    <row r="772" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>29319</v>
       </c>
@@ -53270,7 +53328,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="773" spans="1:17">
+    <row r="773" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>29380</v>
       </c>
@@ -53323,7 +53381,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="774" spans="1:17">
+    <row r="774" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>29411</v>
       </c>
@@ -53376,7 +53434,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="775" spans="1:17">
+    <row r="775" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>29473</v>
       </c>
@@ -53429,7 +53487,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="776" spans="1:17">
+    <row r="776" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>29504</v>
       </c>
@@ -53482,7 +53540,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="777" spans="1:17">
+    <row r="777" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>29597</v>
       </c>
@@ -53535,7 +53593,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="778" spans="1:17">
+    <row r="778" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>29658</v>
       </c>
@@ -53588,7 +53646,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="779" spans="1:17">
+    <row r="779" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>29689</v>
       </c>
@@ -53641,7 +53699,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="780" spans="1:17">
+    <row r="780" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>29751</v>
       </c>
@@ -53694,7 +53752,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="781" spans="1:17">
+    <row r="781" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>29782</v>
       </c>
@@ -53747,7 +53805,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="782" spans="1:17">
+    <row r="782" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>29813</v>
       </c>
@@ -53800,7 +53858,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="783" spans="1:17">
+    <row r="783" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>29844</v>
       </c>
@@ -53853,7 +53911,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="784" spans="1:17">
+    <row r="784" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>29905</v>
       </c>
@@ -53906,7 +53964,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="785" spans="1:17">
+    <row r="785" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>29936</v>
       </c>
@@ -53959,7 +54017,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="786" spans="1:17">
+    <row r="786" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>29967</v>
       </c>
@@ -54012,7 +54070,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="787" spans="1:17">
+    <row r="787" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>30029</v>
       </c>
@@ -54065,7 +54123,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="788" spans="1:17">
+    <row r="788" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>30060</v>
       </c>
@@ -54118,7 +54176,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="789" spans="1:17">
+    <row r="789" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>30121</v>
       </c>
@@ -54171,7 +54229,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="790" spans="1:17">
+    <row r="790" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>30216</v>
       </c>
@@ -54224,7 +54282,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="791" spans="1:17">
+    <row r="791" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>30278</v>
       </c>
@@ -54277,7 +54335,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="792" spans="1:17">
+    <row r="792" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>30310</v>
       </c>
@@ -54330,7 +54388,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="793" spans="1:17">
+    <row r="793" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>30378</v>
       </c>
@@ -54383,7 +54441,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="794" spans="1:17">
+    <row r="794" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>30409</v>
       </c>
@@ -54436,7 +54494,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="795" spans="1:17">
+    <row r="795" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>30471</v>
       </c>
@@ -54489,7 +54547,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="796" spans="1:17">
+    <row r="796" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>30502</v>
       </c>
@@ -54542,7 +54600,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="797" spans="1:17">
+    <row r="797" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>30533</v>
       </c>
@@ -54595,7 +54653,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="798" spans="1:17">
+    <row r="798" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>30564</v>
       </c>
@@ -54648,7 +54706,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="799" spans="1:17">
+    <row r="799" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>30595</v>
       </c>
@@ -54701,7 +54759,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="800" spans="1:17">
+    <row r="800" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>30656</v>
       </c>
@@ -54754,7 +54812,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="801" spans="1:17">
+    <row r="801" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>30687</v>
       </c>
@@ -54807,7 +54865,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="802" spans="1:17">
+    <row r="802" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>30718</v>
       </c>
@@ -54860,7 +54918,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="803" spans="1:17">
+    <row r="803" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>30780</v>
       </c>
@@ -54913,7 +54971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="804" spans="1:17">
+    <row r="804" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>30811</v>
       </c>
@@ -54966,7 +55024,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="805" spans="1:17">
+    <row r="805" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>30842</v>
       </c>
@@ -55019,7 +55077,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="806" spans="1:17">
+    <row r="806" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>30873</v>
       </c>
@@ -55072,7 +55130,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="807" spans="1:17">
+    <row r="807" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>30903</v>
       </c>
@@ -55125,7 +55183,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="808" spans="1:17">
+    <row r="808" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>30965</v>
       </c>
@@ -55178,7 +55236,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="809" spans="1:17">
+    <row r="809" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>30996</v>
       </c>
@@ -55231,7 +55289,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="810" spans="1:17">
+    <row r="810" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>31027</v>
       </c>
@@ -55284,7 +55342,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="811" spans="1:17">
+    <row r="811" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>31058</v>
       </c>
@@ -55337,7 +55395,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="812" spans="1:17">
+    <row r="812" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>31119</v>
       </c>
@@ -55390,7 +55448,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="813" spans="1:17">
+    <row r="813" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>31150</v>
       </c>
@@ -55443,7 +55501,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="814" spans="1:17">
+    <row r="814" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>31181</v>
       </c>
@@ -55496,7 +55554,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="815" spans="1:17">
+    <row r="815" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>31212</v>
       </c>
@@ -55549,7 +55607,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="816" spans="1:17">
+    <row r="816" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>31243</v>
       </c>
@@ -55602,7 +55660,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="817" spans="1:17">
+    <row r="817" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>31274</v>
       </c>
@@ -55655,7 +55713,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="818" spans="1:17">
+    <row r="818" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>31336</v>
       </c>
@@ -55708,7 +55766,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="819" spans="1:17">
+    <row r="819" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>31367</v>
       </c>
@@ -55761,7 +55819,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="820" spans="1:17">
+    <row r="820" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>31398</v>
       </c>
@@ -55814,7 +55872,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="821" spans="1:17">
+    <row r="821" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>31429</v>
       </c>
@@ -55867,7 +55925,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="822" spans="1:17">
+    <row r="822" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>31459</v>
       </c>
@@ -55920,7 +55978,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="823" spans="1:17">
+    <row r="823" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>31490</v>
       </c>
@@ -55973,7 +56031,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="824" spans="1:17">
+    <row r="824" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>31521</v>
       </c>
@@ -56026,7 +56084,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="825" spans="1:17">
+    <row r="825" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>31583</v>
       </c>
@@ -56079,7 +56137,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="826" spans="1:17">
+    <row r="826" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>31614</v>
       </c>
@@ -56132,7 +56190,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="827" spans="1:17">
+    <row r="827" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>31645</v>
       </c>
@@ -56185,7 +56243,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="828" spans="1:17">
+    <row r="828" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>31676</v>
       </c>
@@ -56238,7 +56296,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="829" spans="1:17">
+    <row r="829" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>31707</v>
       </c>
@@ -56291,7 +56349,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="830" spans="1:17">
+    <row r="830" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>31738</v>
       </c>
@@ -56344,7 +56402,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="831" spans="1:17">
+    <row r="831" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>31768</v>
       </c>
@@ -56397,7 +56455,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="832" spans="1:17">
+    <row r="832" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>31799</v>
       </c>
@@ -56450,7 +56508,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="833" spans="1:17">
+    <row r="833" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>31830</v>
       </c>
@@ -56503,7 +56561,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="834" spans="1:17">
+    <row r="834" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>31892</v>
       </c>
@@ -56556,7 +56614,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="835" spans="1:17">
+    <row r="835" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>31922</v>
       </c>
@@ -56609,7 +56667,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="836" spans="1:17">
+    <row r="836" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>31954</v>
       </c>
@@ -56662,7 +56720,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="837" spans="1:17">
+    <row r="837" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>31985</v>
       </c>
@@ -56715,7 +56773,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="838" spans="1:17">
+    <row r="838" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>32016</v>
       </c>
@@ -56768,7 +56826,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="839" spans="1:17">
+    <row r="839" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>32047</v>
       </c>
@@ -56821,7 +56879,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="840" spans="1:17">
+    <row r="840" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>32078</v>
       </c>
@@ -56874,7 +56932,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="841" spans="1:17">
+    <row r="841" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>32109</v>
       </c>
@@ -56927,7 +56985,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="842" spans="1:17">
+    <row r="842" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>32182</v>
       </c>
@@ -56980,7 +57038,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="843" spans="1:17">
+    <row r="843" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>32213</v>
       </c>
@@ -57033,7 +57091,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="844" spans="1:17">
+    <row r="844" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>32244</v>
       </c>
@@ -57102,9 +57160,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:1" ht="24.95" customHeight="1">
+    <row r="10" spans="1:1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
